--- a/mercados/expectativas_eco_3m.xlsx
+++ b/mercados/expectativas_eco_3m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2705,6 +2705,17 @@
         <v>44713</v>
       </c>
     </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>34.29</v>
+      </c>
+      <c r="C212" s="2">
+        <v>44743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_eco_3m.xlsx
+++ b/mercados/expectativas_eco_3m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2716,6 +2716,17 @@
         <v>44743</v>
       </c>
     </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>35.56</v>
+      </c>
+      <c r="C213" s="2">
+        <v>44774</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_eco_3m.xlsx
+++ b/mercados/expectativas_eco_3m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2727,6 +2727,17 @@
         <v>44774</v>
       </c>
     </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>36.53</v>
+      </c>
+      <c r="C214" s="2">
+        <v>44805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_eco_3m.xlsx
+++ b/mercados/expectativas_eco_3m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2738,6 +2738,17 @@
         <v>44805</v>
       </c>
     </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>35.74</v>
+      </c>
+      <c r="C215" s="2">
+        <v>44835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_eco_3m.xlsx
+++ b/mercados/expectativas_eco_3m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2749,6 +2749,17 @@
         <v>44835</v>
       </c>
     </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>37.93</v>
+      </c>
+      <c r="C216" s="2">
+        <v>44866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/expectativas_eco_3m.xlsx
+++ b/mercados/expectativas_eco_3m.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1060,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>72</v>
+        <v>71.62</v>
       </c>
       <c r="C62" s="2">
         <v>40179</v>
@@ -1071,7 +1071,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>72</v>
+        <v>71.91</v>
       </c>
       <c r="C63" s="2">
         <v>40210</v>
@@ -1082,7 +1082,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>71</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="C64" s="2">
         <v>40238</v>
@@ -1093,7 +1093,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>74</v>
+        <v>73.8</v>
       </c>
       <c r="C65" s="2">
         <v>40269</v>
@@ -1104,7 +1104,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>71</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="C66" s="2">
         <v>40299</v>
@@ -1115,7 +1115,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>75</v>
+        <v>74.64</v>
       </c>
       <c r="C67" s="2">
         <v>40330</v>
@@ -1126,7 +1126,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>71</v>
+        <v>71.06</v>
       </c>
       <c r="C68" s="2">
         <v>40360</v>
@@ -1137,7 +1137,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>71</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="C69" s="2">
         <v>40391</v>
@@ -1148,7 +1148,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>70</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="C70" s="2">
         <v>40422</v>
@@ -1159,7 +1159,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>71</v>
+        <v>70.75</v>
       </c>
       <c r="C71" s="2">
         <v>40452</v>
@@ -1170,7 +1170,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>70</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="C72" s="2">
         <v>40483</v>
@@ -1181,7 +1181,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>68</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="C73" s="2">
         <v>40513</v>
@@ -1192,7 +1192,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>66</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="C74" s="2">
         <v>40544</v>
@@ -1203,7 +1203,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="C75" s="2">
         <v>40575</v>
@@ -1214,7 +1214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>65</v>
+        <v>64.53</v>
       </c>
       <c r="C76" s="2">
         <v>40603</v>
@@ -1225,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>46</v>
+        <v>46.07</v>
       </c>
       <c r="C77" s="2">
         <v>40634</v>
@@ -1236,7 +1236,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>49</v>
+        <v>49.01</v>
       </c>
       <c r="C78" s="2">
         <v>40664</v>
@@ -1247,7 +1247,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>47</v>
+        <v>46.64</v>
       </c>
       <c r="C79" s="2">
         <v>40695</v>
@@ -1258,7 +1258,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>51</v>
+        <v>50.88</v>
       </c>
       <c r="C80" s="2">
         <v>40725</v>
@@ -1269,7 +1269,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>51</v>
+        <v>50.7</v>
       </c>
       <c r="C81" s="2">
         <v>40756</v>
@@ -1280,7 +1280,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>53</v>
+        <v>52.93</v>
       </c>
       <c r="C82" s="2">
         <v>40787</v>
@@ -1291,7 +1291,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>58</v>
+        <v>58.49</v>
       </c>
       <c r="C83" s="2">
         <v>40817</v>
@@ -1302,7 +1302,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>58</v>
+        <v>57.53</v>
       </c>
       <c r="C84" s="2">
         <v>40848</v>
@@ -1313,7 +1313,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>56</v>
+        <v>55.79</v>
       </c>
       <c r="C85" s="2">
         <v>40878</v>
@@ -1324,7 +1324,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>57</v>
+        <v>57.33</v>
       </c>
       <c r="C86" s="2">
         <v>40909</v>
@@ -1335,7 +1335,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>60</v>
+        <v>59.52</v>
       </c>
       <c r="C87" s="2">
         <v>40940</v>
@@ -1346,7 +1346,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>64</v>
+        <v>63.54</v>
       </c>
       <c r="C88" s="2">
         <v>40969</v>
@@ -1357,7 +1357,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>65</v>
+        <v>64.98</v>
       </c>
       <c r="C89" s="2">
         <v>41000</v>
@@ -1368,7 +1368,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>60</v>
+        <v>59.82</v>
       </c>
       <c r="C90" s="2">
         <v>41030</v>
@@ -1379,7 +1379,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>57</v>
+        <v>57.22</v>
       </c>
       <c r="C91" s="2">
         <v>41061</v>
@@ -1390,7 +1390,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>56</v>
+        <v>56.15</v>
       </c>
       <c r="C92" s="2">
         <v>41091</v>
@@ -1401,7 +1401,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>59</v>
+        <v>59.12</v>
       </c>
       <c r="C93" s="2">
         <v>41122</v>
@@ -1412,7 +1412,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>61</v>
+        <v>60.81</v>
       </c>
       <c r="C94" s="2">
         <v>41153</v>
@@ -1423,7 +1423,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>64</v>
+        <v>63.95</v>
       </c>
       <c r="C95" s="2">
         <v>41183</v>
@@ -1434,7 +1434,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>64</v>
+        <v>64.33</v>
       </c>
       <c r="C96" s="2">
         <v>41214</v>
@@ -1445,7 +1445,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>64</v>
+        <v>64.13</v>
       </c>
       <c r="C97" s="2">
         <v>41244</v>
@@ -1456,7 +1456,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>67</v>
+        <v>66.67</v>
       </c>
       <c r="C98" s="2">
         <v>41275</v>
@@ -1467,7 +1467,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>66</v>
+        <v>66.31</v>
       </c>
       <c r="C99" s="2">
         <v>41306</v>
@@ -1478,7 +1478,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>65</v>
+        <v>64.56</v>
       </c>
       <c r="C100" s="2">
         <v>41334</v>
@@ -1489,7 +1489,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>60</v>
+        <v>59.73</v>
       </c>
       <c r="C101" s="2">
         <v>41365</v>
@@ -1500,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>54</v>
+        <v>54.11</v>
       </c>
       <c r="C102" s="2">
         <v>41395</v>
@@ -1522,7 +1522,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>50</v>
+        <v>50.32</v>
       </c>
       <c r="C104" s="2">
         <v>41456</v>
@@ -1533,7 +1533,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>48</v>
+        <v>47.61</v>
       </c>
       <c r="C105" s="2">
         <v>41487</v>
@@ -1544,7 +1544,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>53</v>
+        <v>53.24</v>
       </c>
       <c r="C106" s="2">
         <v>41518</v>
@@ -1555,7 +1555,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>55</v>
+        <v>54.5</v>
       </c>
       <c r="C107" s="2">
         <v>41548</v>
@@ -1566,7 +1566,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>54</v>
+        <v>54.08</v>
       </c>
       <c r="C108" s="2">
         <v>41579</v>
@@ -1577,7 +1577,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>59</v>
+        <v>58.7</v>
       </c>
       <c r="C109" s="2">
         <v>41609</v>
@@ -2758,6 +2758,83 @@
       </c>
       <c r="C216" s="2">
         <v>44866</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>42.36</v>
+      </c>
+      <c r="C217" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>31.88</v>
+      </c>
+      <c r="C218" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>41.49</v>
+      </c>
+      <c r="C219" s="2">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>42.91</v>
+      </c>
+      <c r="C220" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>43.93</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>44.51</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>42.78</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45078</v>
       </c>
     </row>
   </sheetData>
